--- a/QALD9-Plus-testing/baseline-model/baseline-wikidata-dbpedia/baseline_mistral_wikidata_dbpedia_results_comparison.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-wikidata-dbpedia/baseline_mistral_wikidata_dbpedia_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,27 +468,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['', 'John Lane', 'Richard Lane', 'http://dbpedia.org/resource/Allen_Lane']</t>
+          <t>['http://dbpedia.org/resource/Allen_Lane']</t>
         </is>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Which films did Stanley Kubrick direct?</t>
+          <t>Who developed Skype?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
+          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
+          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Who developed Skype?</t>
+          <t>What is the highest mountain?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
+          <t>['http://dbpedia.org/resource/Alpide_belt']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Skype Technologies']</t>
+          <t>['http://dbpedia.org/resource/Nooitgedacht_Glacial_Pavements', 'http://dbpedia.org/resource/Magaliesberg']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,37 +518,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>What is the highest mountain?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alpide_belt']</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Nooitgedacht_Glacial_Pavements', 'http://dbpedia.org/resource/Magaliesberg']</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>Who developed Minecraft?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>How much did the Lego Movie cost?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['60.0']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['60.0']</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -578,37 +578,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>How much did the Lego Movie cost?</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['$60–65 million']</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Give me the runtime of Toy Story.</t>
+          <t>Give me a list of all trumpet players that were bandleaders.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['4860']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['4860']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>In which films directed by Garry Marshall was Julia Roberts starring?</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,57 +638,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>What is the highest mountain in Italy?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['94 m', 'http://dbpedia.org/resource/Castelcivita_Caves']</t>
         </is>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['http://dbpedia.org/resource/Business_career_of_Donald_Trump', 'http://dbpedia.org/resource/Media_career_of_Donald_Trump', 'http://dbpedia.org/resource/Political_career_of_Donald_Trump']</t>
         </is>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>Which university did Angela Merkel attend?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Who developed the video game World of Warcraft?</t>
+          <t>Give me all the TV shows with Neil Patrick Harris.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,17 +838,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="D21" t="b">
@@ -858,57 +858,57 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>What is the second highest mountain on Earth?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Himalayas']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['8848.86', 'http://dbpedia.org/resource/Alpide_belt']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>What is the second highest mountain on Earth?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['http://dbpedia.org/resource/Himalayas']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['8848.86', 'http://dbpedia.org/resource/Alpide_belt']</t>
         </is>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,97 +938,97 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>how much is the elevation of Düsseldorf Airport ?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['44.8']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['44.8', '44.8056']</t>
         </is>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)', '0']</t>
+          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
         </is>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['Washington, D.C., United States']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hastings_County,_Ontario', 'http://dbpedia.org/resource/Limerick,_Ontario', 'http://dbpedia.org/resource/Ontario']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>To which artistic movement did the painter of The Three Dancers belong?</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
+          <t>['1.9812']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
+          <t>['1.9812']</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,37 +1078,37 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather_Saga', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,37 +1118,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Give me all people that were born in Vienna and died in Berlin.</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Gerda_Laski', 'http://dbpedia.org/resource/Guido_von_List', 'http://dbpedia.org/resource/Hans_Fidesser', 'http://dbpedia.org/resource/Heinrich_Belohlavek', 'http://dbpedia.org/resource/Hugo_Flink', 'http://dbpedia.org/resource/Josephine_Pagay', 'http://dbpedia.org/resource/Karl_Etlinger', 'http://dbpedia.org/resource/Karl_Hellmer', 'http://dbpedia.org/resource/La_Jana_(actress)', 'http://dbpedia.org/resource/Luise_Begas-Parmentier', 'http://dbpedia.org/resource/Mathilde_Danegger', 'http://dbpedia.org/resource/Michael_von_Newlinsky', 'http://dbpedia.org/resource/Richard_Thurnwald', 'http://dbpedia.org/resource/Robert_Bodanzky', 'http://dbpedia.org/resource/Steffie_Spira', 'http://dbpedia.org/resource/Therese_Grünbaum', 'http://dbpedia.org/resource/Tom_Seidmann-Freud']</t>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Gerda_Laski', 'http://dbpedia.org/resource/Guido_von_List', 'http://dbpedia.org/resource/Hans_Fidesser', 'http://dbpedia.org/resource/Heinrich_Belohlavek', 'http://dbpedia.org/resource/Hugo_Flink', 'http://dbpedia.org/resource/Josephine_Pagay', 'http://dbpedia.org/resource/Karl_Etlinger', 'http://dbpedia.org/resource/Karl_Hellmer', 'http://dbpedia.org/resource/La_Jana_(actress)', 'http://dbpedia.org/resource/Luise_Begas-Parmentier', 'http://dbpedia.org/resource/Mathilde_Danegger', 'http://dbpedia.org/resource/Michael_von_Newlinsky', 'http://dbpedia.org/resource/Richard_Thurnwald', 'http://dbpedia.org/resource/Robert_Bodanzky', 'http://dbpedia.org/resource/Steffie_Spira', 'http://dbpedia.org/resource/Therese_Grünbaum', 'http://dbpedia.org/resource/Tom_Seidmann-Freud']</t>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather_Saga', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
         </is>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>What is the currency of the Czech Republic?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -1178,37 +1178,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>Which musician wrote the most books?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Cass_Browne']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['1', 'http://dbpedia.org/resource/Ben_Rice_(producer)']</t>
         </is>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>How much is the population of mexico city ?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="D41" t="b">
@@ -1258,37 +1258,37 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>How much did Pulp Fiction cost?</t>
+          <t>How much is the population of mexico city ?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['8.0']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['$8–8.5 million']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>To which countries does the Himalayan mountain system extend?</t>
+          <t>Who created Batman?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
         </is>
       </c>
       <c r="D43" t="b">
@@ -1298,40 +1298,60 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>What is the largest country in the world?</t>
+          <t>How many employees does IBM have?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Asia']</t>
+          <t>['282100']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['50119801000000', 'http://dbpedia.org/resource/Organization_for_Security_and_Co-operation_in_Europe']</t>
+          <t>['282100']</t>
         </is>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>How much did Pulp Fiction cost?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>['8.0']</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['8.0']</t>
+        </is>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
-      <c r="D45" t="b">
+      <c r="D46" t="b">
         <v>1</v>
       </c>
     </row>
